--- a/biology/Zoologie/Glossotherium/Glossotherium.xlsx
+++ b/biology/Zoologie/Glossotherium/Glossotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossotherium (littéralement « Bête à langue ») est un genre fossile de paresseux terrestres de grande taille, ayant vécu en Amérique du Sud de la fin du Pliocène jusqu'au début de l'Holocène.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Glossotherium a été créé par Richard Owen en 1840.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Glossotherium mesurait de 3 à 4 mètres du museau au bout de la queue, et pouvait peser jusqu'à 1,7 tonne. Il pouvait ponctuellement adopter une posture bipède.
 </t>
@@ -573,7 +589,9 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fossiles de Glossotherium ont été trouvés dans toute l'Amérique du Sud. Il est assez proche du genre Paramylodon d’Amérique du Nord, dont les spécimens ont été longtemps assignés à Glossotherium, ou l'inverse.
 </t>
@@ -604,9 +622,11 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Glossotherium a vécu de la fin du Pliocène jusqu'au début de l'Holocène, d'environ 3,3 Ma à 8 700 ans avant le présent[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glossotherium a vécu de la fin du Pliocène jusqu'au début de l'Holocène, d'environ 3,3 Ma à 8 700 ans avant le présent.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arbre phylogénétique des Mylodontinae, d'après Boscaini et al. 2019[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique des Mylodontinae, d'après Boscaini et al. 2019 :
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Glossotherium robustum Owen, 1840, Pléistocène
 Glossotherium chapadmalense (Kraglievich, 1925), Pliocène</t>
@@ -697,7 +721,9 @@
           <t>Paléobiologie</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup d'autres genres de Mylodontidae, Glossotherium avait un régime végétivore avec une forte composante herbivore, indiqué par son large museau et la morphologie de sa denture, ce qui est confirmé par l'analyse isotopique de ses dents.
 Ses puissants membres antérieurs laissent supposer une capacité à creuser la terre, peut-être jusqu'à construire des terriers souterrains, ce qui est étonnant pour un animal aussi volumineux.
@@ -729,7 +755,9 @@
           <t>Paléoécologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">En raison de sa taille et de sa force, Glossotherium ne devait pas avoir beaucoup d'ennemis naturels, à part les tigres à dents de sabre comme Smilodon.
 </t>
